--- a/biology/Zoologie/Clypeaster_humilis/Clypeaster_humilis.xlsx
+++ b/biology/Zoologie/Clypeaster_humilis/Clypeaster_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dollar des sables africain (Clypeaster humilis) est une espèce d'oursin irrégulier, présent dans l'océan Indien.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un oursin irrégulier aplati et légèrement allongé de forme sub-pentagonale à angles arrondis. Sur la face aborale (dorsale), les ambulacres forment un motif de fleur caractéristique de ce groupe, avec ici cinq pétales courts, fermés et arrondis. Son anus a migré vers la périphérie de la face orale (inférieure) du test (coquille), pour former un « arrière », opposé à un « avant »[2]. La bouche est au centre de la face orale, entourée de cinq sillons nourriciers allongés, fins et non ramifiés. Il mesure jusqu'à 8 cm de long pour 1 cm d'épaisseur[3]. Il est recouvert d'un dense tapis de fines radioles (piquants) de couleur blanchâtre à jaunâtre, qui lui servent à progresser dans le sable. Une partie des podia sont modifiés en branchies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oursin irrégulier aplati et légèrement allongé de forme sub-pentagonale à angles arrondis. Sur la face aborale (dorsale), les ambulacres forment un motif de fleur caractéristique de ce groupe, avec ici cinq pétales courts, fermés et arrondis. Son anus a migré vers la périphérie de la face orale (inférieure) du test (coquille), pour former un « arrière », opposé à un « avant ». La bouche est au centre de la face orale, entourée de cinq sillons nourriciers allongés, fins et non ramifiés. Il mesure jusqu'à 8 cm de long pour 1 cm d'épaisseur. Il est recouvert d'un dense tapis de fines radioles (piquants) de couleur blanchâtre à jaunâtre, qui lui servent à progresser dans le sable. Une partie des podia sont modifiés en branchies.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet oursin à faible profondeur sur les fonds sableux de l'océan Indien, de la côte est-africaine et de la Mer Rouge aux Philippines, en passant par le Seychelles, Madagascar et les Maldives[4]. 
-On le trouve de la surface à plus de 200 m de fond[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet oursin à faible profondeur sur les fonds sableux de l'océan Indien, de la côte est-africaine et de la Mer Rouge aux Philippines, en passant par le Seychelles, Madagascar et les Maldives. 
+On le trouve de la surface à plus de 200 m de fond.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oursin est un fouisseur : il vit enterré à faible profondeur dans le sable, dont il filtre la fraction organique pour se nourrir de matière organique.
 </t>
